--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.erchegyi_xmcyb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilqamesh\Desktop\Projects\Maze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0CC8E-6139-4B5C-A3BE-85B3C44FC940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="1185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Subject</t>
   </si>
@@ -99,9 +98,6 @@
     <t>Ported my old code and then was fixing some win32 related bugs I created</t>
   </si>
   <si>
-    <t>Fixing framework bugs</t>
-  </si>
-  <si>
     <t>13/03/2023</t>
   </si>
   <si>
@@ -123,23 +119,29 @@
     <t>Added button ui element, was fixing a clamp bug for a while</t>
   </si>
   <si>
-    <t>3+2+2</t>
-  </si>
-  <si>
     <t>Enhance ui</t>
   </si>
   <si>
     <t>Added ui group, box ui element which server as a rendering context, current implementation is messy, but I'd like to move towards the User stories now</t>
+  </si>
+  <si>
+    <t>User story 2</t>
+  </si>
+  <si>
+    <t>Clamp maze dimensions between min and max cells</t>
+  </si>
+  <si>
+    <t>Framework: porting old code, fixing bugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -237,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -407,6 +409,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -425,7 +438,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -465,6 +478,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,16 +493,16 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hivatkozás" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Látott hivatkozás" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1736,14 +1752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
@@ -1753,25 +1769,25 @@
     <col min="7" max="251" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+    <row r="1" spans="1:6" ht="73.5" customHeight="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1805,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1805,15 +1821,15 @@
       <c r="E4" s="19"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="17">
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
@@ -1821,12 +1837,12 @@
       <c r="E5" s="19"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="17">
+        <v>7</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>12</v>
@@ -1837,7 +1853,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1846,14 +1862,14 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17">
         <v>0.5</v>
@@ -1863,57 +1879,63 @@
       <c r="E8" s="19"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="17">
         <v>0.5</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="17">
         <v>0.5</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="17">
         <v>2</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.5</v>
+      </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -1921,7 +1943,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -1929,7 +1951,7 @@
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1937,7 +1959,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -1945,7 +1967,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -1953,7 +1975,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -1961,7 +1983,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -1969,7 +1991,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1977,7 +1999,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -1985,7 +2007,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -1993,7 +2015,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -2001,7 +2023,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -2009,7 +2031,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -2017,7 +2039,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2025,20 +2047,20 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="14">
         <f>SUMIF(E4:E25,"&lt;&gt;x",B4:B25)</f>
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2046,7 +2068,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2054,7 +2076,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Subject</t>
   </si>
@@ -83,12 +83,6 @@
     <t>After reading the wiki for a little bit, I thought of just going with a naive approach on the algorithm as I've done something similar before, and I didn't see any problems not doing that</t>
   </si>
   <si>
-    <t>Think about general structure</t>
-  </si>
-  <si>
-    <t>I'll probably spend some time here, because I don't have enough experience in Unity and I'll use my previous knowledge on building engines so far to create a quick framework for the visual representation, unfortunately can't use a gpu accelerator yet</t>
-  </si>
-  <si>
     <t>Implementing the framework</t>
   </si>
   <si>
@@ -131,7 +125,28 @@
     <t>Clamp maze dimensions between min and max cells</t>
   </si>
   <si>
-    <t>Framework: porting old code, fixing bugs</t>
+    <t>I'll probably spend some time here, because I don't have enough experience in Unity and I'll use my previous knowledge on building engines so far to create a quick framework for the visual representation, unfortunately can't use a gpu accelerator yet, so it's software rendered</t>
+  </si>
+  <si>
+    <t>14/03/2024</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>14/03/2026</t>
+  </si>
+  <si>
+    <t>14/03/2027</t>
+  </si>
+  <si>
+    <t>14/03/2028</t>
+  </si>
+  <si>
+    <t>Framework: porting old code, adding new features, fixing bugs (total time)</t>
+  </si>
+  <si>
+    <t>Thinking about general structure</t>
   </si>
 </sst>
 </file>
@@ -438,7 +453,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -481,6 +496,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,8 +511,8 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1755,13 +1773,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="108" style="1" customWidth="1"/>
@@ -1770,22 +1788,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="16" t="s">
@@ -1823,114 +1841,126 @@
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="17">
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="17">
         <v>7</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B7" s="17">
         <v>0.5</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17">
         <v>0.5</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="19"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="17">
         <v>0.5</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="17">
         <v>0.5</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="26">
+        <v>21</v>
+      </c>
+      <c r="B12" s="22">
         <v>0.5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
-        <v>24</v>
+      <c r="C12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Subject</t>
   </si>
@@ -128,25 +128,25 @@
     <t>I'll probably spend some time here, because I don't have enough experience in Unity and I'll use my previous knowledge on building engines so far to create a quick framework for the visual representation, unfortunately can't use a gpu accelerator yet, so it's software rendered</t>
   </si>
   <si>
-    <t>14/03/2024</t>
-  </si>
-  <si>
-    <t>14/03/2025</t>
-  </si>
-  <si>
-    <t>14/03/2026</t>
-  </si>
-  <si>
-    <t>14/03/2027</t>
-  </si>
-  <si>
-    <t>14/03/2028</t>
-  </si>
-  <si>
     <t>Framework: porting old code, adding new features, fixing bugs (total time)</t>
   </si>
   <si>
     <t>Thinking about general structure</t>
+  </si>
+  <si>
+    <t>User story 3</t>
+  </si>
+  <si>
+    <t>User story 4</t>
+  </si>
+  <si>
+    <t>This was accomplished by previous steps when implementing ui elements</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>Only step left is to think about how to delegate the generation of the maze between frames</t>
   </si>
 </sst>
 </file>
@@ -499,6 +499,9 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,9 +513,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1788,22 +1788,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="16" t="s">
@@ -1857,7 +1857,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" s="17">
         <v>7</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" s="17">
         <v>0.5</v>
@@ -1895,7 +1895,7 @@
         <v>0.5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="19"/>
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>16</v>
@@ -1925,7 +1925,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -1941,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>20</v>
@@ -1957,27 +1957,41 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
     </row>
